--- a/Levantameto_requisitos.1.2.xlsx
+++ b/Levantameto_requisitos.1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgia\Desktop\UNICHRISTUS\Sistemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Educação\Christus\2016.1\APIS\Projeto Final\fabrica-de-festas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Sistema Fábrica de Festas</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Gerar relatório principal</t>
+  </si>
+  <si>
+    <t>O termo "Manter" para o caso de Estoque não é adequado, pois o CRUD para esse tipo de entidade é bem diferenciado. Assim, ao invés de cadastrar, existe o "Adicionar" ou "Dar Entrada" no estoque. Ao invés de remover, existe o "Dar Baixa" no estoque. Portanto, devem ser casos de uso diferentes.</t>
+  </si>
+  <si>
+    <t>A parte de pagamentos está fora do sistema?</t>
+  </si>
+  <si>
+    <t>Quando vocês descrevem "Relatório de Orçamentos", a idéia que passa é de uma coisa fixa, um relatório. Já o nome "manter orçamentos" dá uma idéia de CRUD. Isso merece uma reflexão e melhoria.</t>
   </si>
 </sst>
 </file>
@@ -198,15 +207,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,9 +240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -337,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,27 +516,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -695,9 +710,32 @@
         <v>34</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
